--- a/data/trans_dic/P19D_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19D_R2-Edad-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>93,38; 97,45</t>
+          <t>93,34; 97,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>85,54; 91,94</t>
+          <t>85,75; 92,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>84,54; 91,49</t>
+          <t>84,34; 91,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>83,57; 95,06</t>
+          <t>83,62; 95,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>90,26; 95,19</t>
+          <t>90,41; 95,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>83,64; 90,54</t>
+          <t>83,39; 90,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>82,12; 89,49</t>
+          <t>82,09; 89,7</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>91,35; 97,9</t>
+          <t>91,06; 97,89</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>92,53; 95,79</t>
+          <t>92,48; 95,84</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>85,68; 90,5</t>
+          <t>85,84; 90,54</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>84,62; 89,59</t>
+          <t>84,47; 89,38</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>88,91; 95,72</t>
+          <t>89,05; 95,75</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>94,53; 97,92</t>
+          <t>94,46; 97,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>88,37; 93,35</t>
+          <t>88,41; 93,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>90,37; 95,29</t>
+          <t>90,78; 95,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>88,42; 95,68</t>
+          <t>88,98; 95,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>91,28; 95,71</t>
+          <t>91,34; 95,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>84,95; 90,33</t>
+          <t>85,0; 90,74</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>86,36; 91,97</t>
+          <t>86,28; 91,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>92,61; 96,79</t>
+          <t>92,61; 96,87</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>93,72; 96,44</t>
+          <t>93,89; 96,53</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>87,64; 91,36</t>
+          <t>87,74; 91,45</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>89,51; 93,04</t>
+          <t>89,6; 93,07</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>91,83; 95,89</t>
+          <t>91,79; 95,82</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>89,98; 94,8</t>
+          <t>90,1; 94,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>85,77; 91,35</t>
+          <t>86,18; 91,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>90,23; 94,7</t>
+          <t>90,07; 94,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>91,45; 95,77</t>
+          <t>91,3; 95,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>92,2; 96,09</t>
+          <t>92,37; 95,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>90,21; 94,39</t>
+          <t>90,0; 94,41</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>91,53; 95,61</t>
+          <t>91,51; 95,84</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>93,33; 96,53</t>
+          <t>93,18; 96,45</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>92,09; 94,93</t>
+          <t>91,96; 95,04</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>89,1; 92,54</t>
+          <t>89,09; 92,43</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>91,45; 94,62</t>
+          <t>91,63; 94,69</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>93,14; 95,74</t>
+          <t>93,1; 95,86</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>89,37; 94,73</t>
+          <t>89,43; 94,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>83,27; 89,73</t>
+          <t>83,34; 89,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>84,87; 91,11</t>
+          <t>84,85; 91,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>66,4; 93,36</t>
+          <t>64,79; 93,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>90,21; 95,11</t>
+          <t>90,25; 95,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>88,76; 93,85</t>
+          <t>88,88; 93,88</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>90,77; 95,06</t>
+          <t>90,91; 95,17</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>91,9; 96,95</t>
+          <t>91,4; 96,99</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>90,66; 94,21</t>
+          <t>90,77; 94,21</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>86,99; 91,07</t>
+          <t>86,8; 90,89</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>88,99; 92,63</t>
+          <t>88,9; 92,56</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>76,18; 94,68</t>
+          <t>80,0; 94,84</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>83,3; 91,55</t>
+          <t>83,9; 91,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>77,7; 85,91</t>
+          <t>77,77; 85,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>87,02; 93,29</t>
+          <t>86,74; 93,13</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>89,2; 93,56</t>
+          <t>89,23; 93,47</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>88,88; 95,12</t>
+          <t>88,71; 94,97</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>87,02; 93,38</t>
+          <t>87,12; 93,4</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>89,47; 95,16</t>
+          <t>89,34; 95,18</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>92,43; 95,5</t>
+          <t>92,27; 95,48</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>87,4; 92,33</t>
+          <t>87,57; 92,55</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>83,6; 88,7</t>
+          <t>84,07; 89,0</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>89,18; 93,34</t>
+          <t>89,54; 93,41</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>91,33; 94,05</t>
+          <t>91,4; 94,16</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>82,59; 90,23</t>
+          <t>83,03; 90,48</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>72,44; 81,09</t>
+          <t>72,87; 81,09</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>86,52; 92,45</t>
+          <t>86,91; 92,73</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>86,96; 90,95</t>
+          <t>86,85; 90,82</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>88,42; 93,9</t>
+          <t>88,16; 93,53</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>80,81; 86,89</t>
+          <t>81,14; 87,03</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>85,8; 92,23</t>
+          <t>85,9; 92,04</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>90,18; 94,88</t>
+          <t>90,14; 94,55</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>87,36; 91,52</t>
+          <t>87,35; 91,53</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>78,6; 83,33</t>
+          <t>78,56; 83,6</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>87,28; 91,54</t>
+          <t>87,36; 91,43</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>89,48; 92,65</t>
+          <t>89,51; 92,87</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>91,57; 93,62</t>
+          <t>91,52; 93,75</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>84,89; 87,56</t>
+          <t>85,01; 87,62</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>89,51; 91,77</t>
+          <t>89,58; 91,78</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>84,0; 92,01</t>
+          <t>85,74; 92,14</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>91,98; 93,93</t>
+          <t>91,94; 93,88</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>87,81; 90,07</t>
+          <t>87,79; 90,13</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>90,06; 92,17</t>
+          <t>89,99; 92,28</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>93,19; 94,92</t>
+          <t>93,31; 94,97</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>92,12; 93,6</t>
+          <t>92,14; 93,6</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>86,78; 88,58</t>
+          <t>86,92; 88,63</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>90,02; 91,61</t>
+          <t>89,98; 91,59</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>89,48; 93,33</t>
+          <t>89,7; 93,36</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19D_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19D_R2-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>93,34; 97,65</t>
+          <t>92,99; 97,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>85,75; 92,03</t>
+          <t>86,0; 92,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>84,34; 91,32</t>
+          <t>84,67; 91,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>90,41; 95,4</t>
+          <t>90,0; 95,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>83,39; 90,57</t>
+          <t>83,31; 90,34</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>82,09; 89,7</t>
+          <t>82,67; 89,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>92,48; 95,84</t>
+          <t>92,65; 95,92</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>85,84; 90,54</t>
+          <t>85,99; 90,45</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>84,47; 89,38</t>
+          <t>84,8; 89,75</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>94,46; 97,93</t>
+          <t>94,63; 97,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>88,41; 93,23</t>
+          <t>88,24; 93,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>90,78; 95,37</t>
+          <t>90,39; 95,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>91,34; 95,71</t>
+          <t>91,33; 95,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>85,0; 90,74</t>
+          <t>84,62; 90,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>86,28; 91,91</t>
+          <t>86,68; 91,83</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>93,89; 96,53</t>
+          <t>93,68; 96,35</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>87,74; 91,45</t>
+          <t>87,62; 91,47</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>89,6; 93,07</t>
+          <t>89,49; 93,02</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>90,1; 94,81</t>
+          <t>89,89; 94,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>86,18; 91,56</t>
+          <t>86,16; 91,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>90,07; 94,66</t>
+          <t>89,99; 94,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>92,37; 95,96</t>
+          <t>92,35; 96,2</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>90,0; 94,41</t>
+          <t>89,94; 94,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>91,51; 95,84</t>
+          <t>91,82; 95,82</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>91,96; 95,04</t>
+          <t>91,98; 94,98</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>89,09; 92,43</t>
+          <t>88,83; 92,39</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>91,63; 94,69</t>
+          <t>91,78; 94,69</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>89,43; 94,82</t>
+          <t>89,21; 94,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>83,34; 89,7</t>
+          <t>83,14; 89,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>84,85; 91,24</t>
+          <t>85,45; 91,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>90,25; 95,04</t>
+          <t>90,11; 95,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>88,88; 93,88</t>
+          <t>88,92; 93,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>90,91; 95,17</t>
+          <t>90,97; 95,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>90,77; 94,21</t>
+          <t>90,72; 94,39</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>86,8; 90,89</t>
+          <t>87,09; 91,02</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>88,9; 92,56</t>
+          <t>88,92; 92,71</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>83,9; 91,42</t>
+          <t>83,34; 91,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>77,77; 85,62</t>
+          <t>77,45; 85,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>86,74; 93,13</t>
+          <t>86,89; 93,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>88,71; 94,97</t>
+          <t>88,69; 95,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>87,12; 93,4</t>
+          <t>86,95; 93,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>89,34; 95,18</t>
+          <t>89,69; 95,1</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>87,57; 92,55</t>
+          <t>87,53; 92,24</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>84,07; 89,0</t>
+          <t>83,75; 88,75</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>89,54; 93,41</t>
+          <t>89,24; 93,55</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>83,03; 90,48</t>
+          <t>83,47; 90,71</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>72,87; 81,09</t>
+          <t>72,45; 81,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>86,91; 92,73</t>
+          <t>86,79; 92,83</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>88,16; 93,53</t>
+          <t>88,56; 93,56</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>81,14; 87,03</t>
+          <t>81,0; 87,02</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>85,9; 92,04</t>
+          <t>85,55; 92,13</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>87,35; 91,53</t>
+          <t>87,24; 91,52</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>78,56; 83,6</t>
+          <t>78,46; 83,46</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>87,36; 91,43</t>
+          <t>87,29; 91,64</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>91,52; 93,75</t>
+          <t>91,64; 93,71</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>85,01; 87,62</t>
+          <t>84,89; 87,6</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>89,58; 91,78</t>
+          <t>89,34; 91,68</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>91,94; 93,88</t>
+          <t>91,94; 93,89</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>87,79; 90,13</t>
+          <t>87,83; 90,09</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>89,99; 92,28</t>
+          <t>89,89; 92,12</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>92,14; 93,6</t>
+          <t>92,05; 93,48</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>86,92; 88,63</t>
+          <t>86,89; 88,6</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>89,98; 91,59</t>
+          <t>90,16; 91,67</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
